--- a/baidu_hot_history.xlsx
+++ b/baidu_hot_history.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B17"/>
+  <dimension ref="A1:B23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2565,6 +2565,600 @@
         </is>
       </c>
     </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>2025-11-08 21:13:41</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>[
+  {
+    "rank": 1,
+    "title": "测试热搜标题1",
+    "description": "这是测试热搜描述1",
+    "hot_index": "1000000"
+  },
+  {
+    "rank": 2,
+    "title": "测试热搜标题2",
+    "description": "这是测试热搜描述2",
+    "hot_index": "900000"
+  },
+  {
+    "rank": 3,
+    "title": "测试热搜标题3",
+    "description": "这是测试热搜描述3",
+    "hot_index": "800000"
+  }
+]</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>2025-11-08 21:17:34</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>[
+  {
+    "rank": 1,
+    "title": "测试热搜标题1",
+    "description": "这是测试热搜描述1",
+    "hot_index": "1000000"
+  },
+  {
+    "rank": 2,
+    "title": "测试热搜标题2",
+    "description": "这是测试热搜描述2",
+    "hot_index": "900000"
+  },
+  {
+    "rank": 3,
+    "title": "测试热搜标题3",
+    "description": "这是测试热搜描述3",
+    "hot_index": "800000"
+  }
+]</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>2025-11-08 21:27:19</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>[
+  {
+    "rank": 1,
+    "title": "从革命文化中赓续红色血脉",
+    "description": "",
+    "hot_index": "7904101"
+  },
+  {
+    "rank": 2,
+    "title": "这些照片千万别发在朋友圈",
+    "description": "",
+    "hot_index": "7808154"
+  },
+  {
+    "rank": 3,
+    "title": "“全网最像夫妻”回应被建议测DNA",
+    "description": "",
+    "hot_index": "7712278"
+  },
+  {
+    "rank": 4,
+    "title": "全运会赛程日历来了",
+    "description": "",
+    "hot_index": "7616493"
+  },
+  {
+    "rank": 5,
+    "title": "郑恺空降吴彦祖直播间啦",
+    "description": "",
+    "hot_index": "7519901"
+  },
+  {
+    "rank": 6,
+    "title": "高校保洁阿姨手搓银杏叶周边",
+    "description": "",
+    "hot_index": "7425597"
+  },
+  {
+    "rank": 7,
+    "title": "女子在小区里遛企鹅 社区：违法",
+    "description": "",
+    "hot_index": "7328449"
+  },
+  {
+    "rank": 8,
+    "title": "华为将发布新款手表 售价6499元起",
+    "description": "",
+    "hot_index": "7233579"
+  },
+  {
+    "rank": 9,
+    "title": "高铁票买到19排但车厢只有17排",
+    "description": "",
+    "hot_index": "7138242"
+  },
+  {
+    "rank": 10,
+    "title": "郑丽文祭拜吴石将军 鞠躬献花",
+    "description": "",
+    "hot_index": "7043637"
+  },
+  {
+    "rank": 11,
+    "title": "福建舰舰长亮相《新闻联播》",
+    "description": "",
+    "hot_index": "6950087"
+  },
+  {
+    "rank": 12,
+    "title": "当地辟谣饭店老板患艾滋病仍经营",
+    "description": "",
+    "hot_index": "6857824"
+  },
+  {
+    "rank": 13,
+    "title": "TVB老戏骨凌汉被证实已去世",
+    "description": "",
+    "hot_index": "6752160"
+  },
+  {
+    "rank": 14,
+    "title": "模仿死刑犯劳荣枝起号击穿良知底线",
+    "description": "",
+    "hot_index": "6663889"
+  },
+  {
+    "rank": 15,
+    "title": "四川妹子想去湖南发展希望月薪2万",
+    "description": "",
+    "hot_index": "6561507"
+  },
+  {
+    "rank": 16,
+    "title": "KPL年度总决赛：AG超玩会vs狼队",
+    "description": "",
+    "hot_index": "6478119"
+  },
+  {
+    "rank": 17,
+    "title": "空乘穿毛衣被吐槽土 山东航空回应",
+    "description": "",
+    "hot_index": "6377103"
+  },
+  {
+    "rank": 18,
+    "title": "纽约用带盖垃圾桶 市长：革命性创意",
+    "description": "",
+    "hot_index": "6278420"
+  },
+  {
+    "rank": 19,
+    "title": "陈芋汐断层晋级10米台决赛",
+    "description": "",
+    "hot_index": "6177862"
+  },
+  {
+    "rank": 20,
+    "title": "哪些省份被纳入航母命名库？海军回应",
+    "description": "",
+    "hot_index": "6095746"
+  }
+]</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>2025-11-08 21:29:52</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>[
+  {
+    "rank": 1,
+    "title": "从革命文化中赓续红色血脉",
+    "description": "",
+    "hot_index": "7904882"
+  },
+  {
+    "rank": 2,
+    "title": "这些照片千万别发在朋友圈",
+    "description": "",
+    "hot_index": "7808449"
+  },
+  {
+    "rank": 3,
+    "title": "“全网最像夫妻”回应被建议测DNA",
+    "description": "",
+    "hot_index": "7713277"
+  },
+  {
+    "rank": 4,
+    "title": "全运会赛程日历来了",
+    "description": "",
+    "hot_index": "7616292"
+  },
+  {
+    "rank": 5,
+    "title": "郑恺空降吴彦祖直播间啦",
+    "description": "",
+    "hot_index": "7520031"
+  },
+  {
+    "rank": 6,
+    "title": "高校保洁阿姨手搓银杏叶周边",
+    "description": "",
+    "hot_index": "7428095"
+  },
+  {
+    "rank": 7,
+    "title": "女子在小区里遛企鹅 社区：违法",
+    "description": "",
+    "hot_index": "7333941"
+  },
+  {
+    "rank": 8,
+    "title": "高铁票买到19排但车厢只有17排",
+    "description": "",
+    "hot_index": "7236444"
+  },
+  {
+    "rank": 9,
+    "title": "华为将发布新款手表 售价6499元起",
+    "description": "",
+    "hot_index": "7138598"
+  },
+  {
+    "rank": 10,
+    "title": "郑丽文祭拜吴石将军 鞠躬献花",
+    "description": "",
+    "hot_index": "7046598"
+  },
+  {
+    "rank": 11,
+    "title": "福建舰舰长亮相《新闻联播》",
+    "description": "",
+    "hot_index": "6946911"
+  },
+  {
+    "rank": 12,
+    "title": "当地辟谣饭店老板患艾滋病仍经营",
+    "description": "",
+    "hot_index": "6851120"
+  },
+  {
+    "rank": 13,
+    "title": "TVB老戏骨凌汉被证实已去世",
+    "description": "",
+    "hot_index": "6758573"
+  },
+  {
+    "rank": 14,
+    "title": "模仿死刑犯劳荣枝起号击穿良知底线",
+    "description": "",
+    "hot_index": "6668538"
+  },
+  {
+    "rank": 15,
+    "title": "四川妹子想去湖南发展希望月薪2万",
+    "description": "",
+    "hot_index": "6562874"
+  },
+  {
+    "rank": 16,
+    "title": "KPL年度总决赛：AG超玩会vs狼队",
+    "description": "",
+    "hot_index": "6463233"
+  },
+  {
+    "rank": 17,
+    "title": "空乘穿毛衣被吐槽土 山东航空回应",
+    "description": "",
+    "hot_index": "6371171"
+  },
+  {
+    "rank": 18,
+    "title": "纽约用带盖垃圾桶 市长：革命性创意",
+    "description": "",
+    "hot_index": "6287836"
+  },
+  {
+    "rank": 19,
+    "title": "陈芋汐断层晋级10米台决赛",
+    "description": "",
+    "hot_index": "6182902"
+  },
+  {
+    "rank": 20,
+    "title": "哪些省份被纳入航母命名库？海军回应",
+    "description": "",
+    "hot_index": "6084313"
+  }
+]</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>2025-11-08 21:33:00</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>[
+  {
+    "rank": 1,
+    "title": "从革命文化中赓续红色血脉",
+    "description": "",
+    "hot_index": "7903974"
+  },
+  {
+    "rank": 2,
+    "title": "这些照片千万别发在朋友圈",
+    "description": "",
+    "hot_index": "7809540"
+  },
+  {
+    "rank": 3,
+    "title": "“全网最像夫妻”回应被建议测DNA",
+    "description": "",
+    "hot_index": "7713771"
+  },
+  {
+    "rank": 4,
+    "title": "全运会赛程日历来了",
+    "description": "",
+    "hot_index": "7619170"
+  },
+  {
+    "rank": 5,
+    "title": "郑恺空降吴彦祖直播间啦",
+    "description": "",
+    "hot_index": "7520513"
+  },
+  {
+    "rank": 6,
+    "title": "高校保洁阿姨手搓银杏叶周边",
+    "description": "",
+    "hot_index": "7427822"
+  },
+  {
+    "rank": 7,
+    "title": "女子在小区里遛企鹅 社区：违法",
+    "description": "",
+    "hot_index": "7331401"
+  },
+  {
+    "rank": 8,
+    "title": "华为将发布新款手表 售价6499元起",
+    "description": "",
+    "hot_index": "7233561"
+  },
+  {
+    "rank": 9,
+    "title": "高铁票买到19排但车厢只有17排",
+    "description": "",
+    "hot_index": "7139697"
+  },
+  {
+    "rank": 10,
+    "title": "郑丽文祭拜吴石将军 鞠躬献花",
+    "description": "",
+    "hot_index": "7042091"
+  },
+  {
+    "rank": 11,
+    "title": "福建舰舰长亮相《新闻联播》",
+    "description": "",
+    "hot_index": "6944901"
+  },
+  {
+    "rank": 12,
+    "title": "当地辟谣饭店老板患艾滋病仍经营",
+    "description": "",
+    "hot_index": "6849784"
+  },
+  {
+    "rank": 13,
+    "title": "TVB老戏骨凌汉被证实已去世",
+    "description": "",
+    "hot_index": "6761451"
+  },
+  {
+    "rank": 14,
+    "title": "模仿死刑犯劳荣枝起号击穿良知底线",
+    "description": "",
+    "hot_index": "6659607"
+  },
+  {
+    "rank": 15,
+    "title": "空乘穿毛衣被吐槽土 山东航空回应",
+    "description": "",
+    "hot_index": "6561159"
+  },
+  {
+    "rank": 16,
+    "title": "KPL年度总决赛：AG超玩会vs狼队",
+    "description": "",
+    "hot_index": "6475081"
+  },
+  {
+    "rank": 17,
+    "title": "四川妹子想去湖南发展希望月薪2万",
+    "description": "",
+    "hot_index": "6372386"
+  },
+  {
+    "rank": 18,
+    "title": "纽约用带盖垃圾桶 市长：革命性创意",
+    "description": "",
+    "hot_index": "6274322"
+  },
+  {
+    "rank": 19,
+    "title": "陈芋汐断层晋级10米台决赛",
+    "description": "",
+    "hot_index": "6191979"
+  },
+  {
+    "rank": 20,
+    "title": "哪些省份被纳入航母命名库？海军回应",
+    "description": "",
+    "hot_index": "6081385"
+  }
+]</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>2025-11-08 21:46:31</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>[
+  {
+    "rank": 1,
+    "title": "从革命文化中赓续红色血脉",
+    "description": "",
+    "hot_index": "7904113"
+  },
+  {
+    "rank": 2,
+    "title": "这些照片千万别发在朋友圈",
+    "description": "",
+    "hot_index": "7809526"
+  },
+  {
+    "rank": 3,
+    "title": "福建舰舰长亮相《新闻联播》",
+    "description": "",
+    "hot_index": "7711976"
+  },
+  {
+    "rank": 4,
+    "title": "全运会赛程日历来了",
+    "description": "",
+    "hot_index": "7617931"
+  },
+  {
+    "rank": 5,
+    "title": "郑恺空降吴彦祖直播间啦",
+    "description": "",
+    "hot_index": "7524278"
+  },
+  {
+    "rank": 6,
+    "title": "高校保洁阿姨手搓银杏叶周边",
+    "description": "",
+    "hot_index": "7424806"
+  },
+  {
+    "rank": 7,
+    "title": "女子在小区里遛企鹅 社区：违法",
+    "description": "",
+    "hot_index": "7332113"
+  },
+  {
+    "rank": 8,
+    "title": "郑丽文祭拜吴石将军 鞠躬献花",
+    "description": "",
+    "hot_index": "7232596"
+  },
+  {
+    "rank": 9,
+    "title": "华为将发布新款手表 售价6499元起",
+    "description": "",
+    "hot_index": "7143960"
+  },
+  {
+    "rank": 10,
+    "title": "高铁票买到19排但车厢只有17排",
+    "description": "",
+    "hot_index": "7040383"
+  },
+  {
+    "rank": 11,
+    "title": "纽约用带盖垃圾桶 市长：革命性创意",
+    "description": "",
+    "hot_index": "6945229"
+  },
+  {
+    "rank": 12,
+    "title": "当地辟谣饭店老板患艾滋病仍经营",
+    "description": "",
+    "hot_index": "6847388"
+  },
+  {
+    "rank": 13,
+    "title": "模仿死刑犯劳荣枝起号击穿良知底线",
+    "description": "",
+    "hot_index": "6758702"
+  },
+  {
+    "rank": 14,
+    "title": "TVB老戏骨凌汉被证实已去世",
+    "description": "",
+    "hot_index": "6662941"
+  },
+  {
+    "rank": 15,
+    "title": "空乘穿毛衣被吐槽土 山东航空回应",
+    "description": "",
+    "hot_index": "6560116"
+  },
+  {
+    "rank": 16,
+    "title": "KPL年度总决赛：AG超玩会vs狼队",
+    "description": "",
+    "hot_index": "6475866"
+  },
+  {
+    "rank": 17,
+    "title": "“全网最像夫妻”回应被建议测DNA",
+    "description": "",
+    "hot_index": "6379715"
+  },
+  {
+    "rank": 18,
+    "title": "四川妹子想去湖南发展希望月薪2万",
+    "description": "",
+    "hot_index": "6287562"
+  },
+  {
+    "rank": 19,
+    "title": "陈芋汐断层晋级10米台决赛",
+    "description": "",
+    "hot_index": "6174560"
+  },
+  {
+    "rank": 20,
+    "title": "哪些省份被纳入航母命名库？海军回应",
+    "description": "",
+    "hot_index": "6092561"
+  }
+]</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
